--- a/Resultados/resultados PSO simple 12_06_23.xlsx
+++ b/Resultados/resultados PSO simple 12_06_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797E454-906D-4E74-8A4D-23694F9CCBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6CAFF-5BB5-4BF4-B496-AA09C750B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -80,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,6 +113,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Función</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -654,7 +684,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CL"/>
-                  <a:t>Valor particula</a:t>
+                  <a:t>Valor partícula</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1631,7 +1661,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultados/resultados PSO simple 12_06_23.xlsx
+++ b/Resultados/resultados PSO simple 12_06_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Universidad\Proyecto titulo1\PSO\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6CAFF-5BB5-4BF4-B496-AA09C750B79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35CEFBB-6FC8-4E4F-909D-B4A7A3F495A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +53,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,13 +142,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>Función</a:t>
+              <a:t>Valores rango[0-5]</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> 2</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -564,7 +568,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CL"/>
-                  <a:t>Valor funcion</a:t>
+                  <a:t>Valor Partícula</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -684,7 +688,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CL"/>
-                  <a:t>Valor partícula</a:t>
+                  <a:t>Valor función</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1658,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1675,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>3.9630000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -1701,7 +1705,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>1.5920000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>1.873</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>2.0089999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1749,15 +1753,16 @@
         <v>2.1389999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" s="1">
         <v>2.2650000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>2.3860000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
@@ -1773,7 +1778,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -1781,7 +1786,7 @@
         <v>2.6110000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>2.7149999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.4</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>2.8130000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -2096,6 +2101,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>